--- a/3-course-6-semester/financial-mathematics/task-6/ПМ1901 06 Бронников.xlsx
+++ b/3-course-6-semester/financial-mathematics/task-6/ПМ1901 06 Бронников.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\financial-mathematics\task-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086153E-4E6A-426C-A28E-C6A3095224A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C198883E-0FA4-4126-B4F3-032D7E5D9938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -242,8 +242,8 @@
   <numFmts count="4">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -629,15 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -654,9 +646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -668,15 +657,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,12 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,19 +680,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -743,15 +705,6 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,12 +722,59 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5443,10 +5443,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5712,8 +5708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1D7B4B-6B1B-473A-82F9-54EC10DD95A2}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5730,18 +5726,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="59">
         <v>44276</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5752,7 +5748,7 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>1000</v>
       </c>
       <c r="C7" t="s">
@@ -5763,7 +5759,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -5774,7 +5770,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -5788,527 +5784,527 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="41" t="s">
+      <c r="H14" s="64"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="43" t="s">
+      <c r="K14" s="64"/>
+      <c r="L14" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="44"/>
-      <c r="F16" s="46">
+      <c r="D16" s="30"/>
+      <c r="F16" s="32">
         <v>0.48</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="33">
         <v>0.4</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="33">
         <v>0.35102922384940588</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="33">
         <v>0.33647226147418696</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="33">
         <v>0.32270913915867461</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="33">
         <v>0.28571428576787222</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="34">
         <v>0.24489803757544074</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
         <v>4</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="8">
         <v>4</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="29"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="31" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="55"/>
+      <c r="G19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="31"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="12">
-        <f>D21*(1/$B$9)</f>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21:E29" si="0">D21*(1/$B$9)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="22">
-        <f>$B$7*(1+F$16*$E21)</f>
+      <c r="F21" s="17">
+        <f t="shared" ref="F21:F29" si="1">$B$7*(1+F$16*$E21)</f>
         <v>1000</v>
       </c>
-      <c r="G21" s="22">
-        <f>$B$7*(1+G$16)^$E21</f>
+      <c r="G21" s="17">
+        <f t="shared" ref="G21:G29" si="2">$B$7*(1+G$16)^$E21</f>
         <v>1000</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="17">
         <f>$B$7*(1+H$16/H$17)^($E21*H$17)</f>
         <v>1000</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="17">
         <f>$B$7*EXP(I$16*$E21)</f>
         <v>1000</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="17">
         <f>$B$7*(1-J$16/J$17)^-($E21*J$17)</f>
         <v>1000</v>
       </c>
-      <c r="K21" s="22">
-        <f>$B$7*(1-K$16)^(-$E21)</f>
+      <c r="K21" s="17">
+        <f t="shared" ref="K21:K29" si="3">$B$7*(1-K$16)^(-$E21)</f>
         <v>1000</v>
       </c>
-      <c r="L21" s="22">
-        <f>$B$7*(1-L$16*$E21)^-1</f>
+      <c r="L21" s="17">
+        <f t="shared" ref="L21:L29" si="4">$B$7*(1-L$16*$E21)^-1</f>
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="12">
-        <f>D22*(1/$B$9)</f>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F22" s="13">
-        <f>$B$7*(1+F$16*$E22)</f>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
         <v>1120</v>
       </c>
-      <c r="G22" s="13">
-        <f>$B$7*(1+G$16)^$E22</f>
+      <c r="G22" s="9">
+        <f t="shared" si="2"/>
         <v>1087.7573059372771</v>
       </c>
-      <c r="H22" s="13">
-        <f t="shared" ref="H22:H29" si="0">$B$7*(1+H$16/H$17)^($E22*H$17)</f>
+      <c r="H22" s="9">
+        <f t="shared" ref="H22:H29" si="5">$B$7*(1+H$16/H$17)^($E22*H$17)</f>
         <v>1087.7573059623514</v>
       </c>
-      <c r="I22" s="13">
-        <f t="shared" ref="I22:I29" si="1">$B$7*EXP(I$16*$E22)</f>
+      <c r="I22" s="9">
+        <f t="shared" ref="I22:I29" si="6">$B$7*EXP(I$16*$E22)</f>
         <v>1087.7573126957782</v>
       </c>
-      <c r="J22" s="13">
-        <f t="shared" ref="J22:J29" si="2">$B$7*(1-J$16/J$17)^-($E22*J$17)</f>
+      <c r="J22" s="9">
+        <f t="shared" ref="J22:J29" si="7">$B$7*(1-J$16/J$17)^-($E22*J$17)</f>
         <v>1087.7573059545368</v>
       </c>
-      <c r="K22" s="13">
-        <f>$B$7*(1-K$16)^(-$E22)</f>
+      <c r="K22" s="9">
+        <f t="shared" si="3"/>
         <v>1087.7573059576785</v>
       </c>
-      <c r="L22" s="13">
-        <f>$B$7*(1-L$16*$E22)^-1</f>
+      <c r="L22" s="9">
+        <f t="shared" si="4"/>
         <v>1065.2174135418995</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="12">
-        <f>D23*(1/$B$9)</f>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F23" s="13">
-        <f>$B$7*(1+F$16*$E23)</f>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
         <v>1240</v>
       </c>
-      <c r="G23" s="13">
-        <f>$B$7*(1+G$16)^$E23</f>
+      <c r="G23" s="9">
+        <f t="shared" si="2"/>
         <v>1183.2159566199232</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="9">
+        <f t="shared" si="5"/>
+        <v>1183.2159566744729</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="6"/>
+        <v>1183.215971323141</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="7"/>
+        <v>1183.2159566574721</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="3"/>
+        <v>1183.2159566643063</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="4"/>
+        <v>1139.5349346183457</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
-        <v>1183.2159566744729</v>
-      </c>
-      <c r="I23" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="1"/>
-        <v>1183.215971323141</v>
-      </c>
-      <c r="J23" s="13">
+        <v>1359.9999999999998</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="2"/>
-        <v>1183.2159566574721</v>
-      </c>
-      <c r="K23" s="13">
-        <f>$B$7*(1-K$16)^(-$E23)</f>
-        <v>1183.2159566643063</v>
-      </c>
-      <c r="L23" s="13">
-        <f>$B$7*(1-L$16*$E23)^-1</f>
-        <v>1139.5349346183457</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="12">
-        <v>3</v>
-      </c>
-      <c r="E24" s="12">
-        <f>D24*(1/$B$9)</f>
-        <v>0.75</v>
-      </c>
-      <c r="F24" s="13">
-        <f>$B$7*(1+F$16*$E24)</f>
-        <v>1359.9999999999998</v>
-      </c>
-      <c r="G24" s="13">
-        <f>$B$7*(1+G$16)^$E24</f>
         <v>1287.0518013148858</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="9">
+        <f t="shared" si="5"/>
+        <v>1287.051801403891</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="6"/>
+        <v>1287.0518253051848</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="7"/>
+        <v>1287.0518013761518</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="3"/>
+        <v>1287.0518013873032</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="4"/>
+        <v>1225.0000882274908</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
-        <v>1287.051801403891</v>
-      </c>
-      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
         <f t="shared" si="1"/>
-        <v>1287.0518253051848</v>
-      </c>
-      <c r="J24" s="13">
+        <v>1480</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="2"/>
-        <v>1287.0518013761518</v>
-      </c>
-      <c r="K24" s="13">
-        <f>$B$7*(1-K$16)^(-$E24)</f>
-        <v>1287.0518013873032</v>
-      </c>
-      <c r="L24" s="13">
-        <f>$B$7*(1-L$16*$E24)^-1</f>
-        <v>1225.0000882274908</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="12">
-        <v>4</v>
-      </c>
-      <c r="E25" s="12">
-        <f>D25*(1/$B$9)</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
-        <f>$B$7*(1+F$16*$E25)</f>
-        <v>1480</v>
-      </c>
-      <c r="G25" s="13">
-        <f>$B$7*(1+G$16)^$E25</f>
         <v>1400</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="9">
+        <f t="shared" si="5"/>
+        <v>1400.000000129088</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="6"/>
+        <v>1400.0000347941641</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="7"/>
+        <v>1400.0000000888567</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="3"/>
+        <v>1400.0000001050296</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="4"/>
+        <v>1324.3244618105573</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="8">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
-        <v>1400.000000129088</v>
-      </c>
-      <c r="I25" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="F26" s="9">
         <f t="shared" si="1"/>
-        <v>1400.0000347941641</v>
-      </c>
-      <c r="J25" s="13">
+        <v>1600</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="2"/>
-        <v>1400.0000000888567</v>
-      </c>
-      <c r="K25" s="13">
-        <f>$B$7*(1-K$16)^(-$E25)</f>
-        <v>1400.0000001050296</v>
-      </c>
-      <c r="L25" s="13">
-        <f>$B$7*(1-L$16*$E25)^-1</f>
-        <v>1324.3244618105573</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="12">
-        <v>5</v>
-      </c>
-      <c r="E26" s="12">
-        <f>D26*(1/$B$9)</f>
-        <v>1.25</v>
-      </c>
-      <c r="F26" s="13">
-        <f>$B$7*(1+F$16*$E26)</f>
-        <v>1600</v>
-      </c>
-      <c r="G26" s="13">
-        <f>$B$7*(1+G$16)^$E26</f>
         <v>1522.8602283121879</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="9">
+        <f t="shared" si="5"/>
+        <v>1522.8602284877086</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="6"/>
+        <v>1522.8602756216958</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="7"/>
+        <v>1522.8602284330061</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="3"/>
+        <v>1522.8602284549966</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="4"/>
+        <v>1441.1766741118727</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="8">
+        <v>6</v>
+      </c>
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
-        <v>1522.8602284877086</v>
-      </c>
-      <c r="I26" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="9">
         <f t="shared" si="1"/>
-        <v>1522.8602756216958</v>
-      </c>
-      <c r="J26" s="13">
+        <v>1720</v>
+      </c>
+      <c r="G27" s="9">
         <f t="shared" si="2"/>
-        <v>1522.8602284330061</v>
-      </c>
-      <c r="K26" s="13">
-        <f>$B$7*(1-K$16)^(-$E26)</f>
-        <v>1522.8602284549966</v>
-      </c>
-      <c r="L26" s="13">
-        <f>$B$7*(1-L$16*$E26)^-1</f>
-        <v>1441.1766741118727</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="12">
-        <v>6</v>
-      </c>
-      <c r="E27" s="12">
-        <f>D27*(1/$B$9)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F27" s="13">
-        <f>$B$7*(1+F$16*$E27)</f>
-        <v>1720</v>
-      </c>
-      <c r="G27" s="13">
-        <f>$B$7*(1+G$16)^$E27</f>
         <v>1656.5023392678925</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="9">
+        <f t="shared" si="5"/>
+        <v>1656.502339497001</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="6"/>
+        <v>1656.5024010214083</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="7"/>
+        <v>1656.5023394255973</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="3"/>
+        <v>1656.5023394543016</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="4"/>
+        <v>1580.6454550759649</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="8">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
-        <v>1656.502339497001</v>
-      </c>
-      <c r="I27" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="F28" s="9">
         <f t="shared" si="1"/>
-        <v>1656.5024010214083</v>
-      </c>
-      <c r="J27" s="13">
+        <v>1839.9999999999998</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="2"/>
-        <v>1656.5023394255973</v>
-      </c>
-      <c r="K27" s="13">
-        <f>$B$7*(1-K$16)^(-$E27)</f>
-        <v>1656.5023394543016</v>
-      </c>
-      <c r="L27" s="13">
-        <f>$B$7*(1-L$16*$E27)^-1</f>
-        <v>1580.6454550759649</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="12">
-        <v>7</v>
-      </c>
-      <c r="E28" s="12">
-        <f>D28*(1/$B$9)</f>
-        <v>1.75</v>
-      </c>
-      <c r="F28" s="13">
-        <f>$B$7*(1+F$16*$E28)</f>
-        <v>1839.9999999999998</v>
-      </c>
-      <c r="G28" s="13">
-        <f>$B$7*(1+G$16)^$E28</f>
         <v>1801.8725218408399</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="9">
+        <f t="shared" si="5"/>
+        <v>1801.8725221315904</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="6"/>
+        <v>1801.8726002091512</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="7"/>
+        <v>1801.8725220409758</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="3"/>
+        <v>1801.8725220774029</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="4"/>
+        <v>1750.0004201309785</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="10">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10">
         <f t="shared" si="0"/>
-        <v>1801.8725221315904</v>
-      </c>
-      <c r="I28" s="13">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11">
         <f t="shared" si="1"/>
-        <v>1801.8726002091512</v>
-      </c>
-      <c r="J28" s="13">
+        <v>1960</v>
+      </c>
+      <c r="G29" s="11">
         <f t="shared" si="2"/>
-        <v>1801.8725220409758</v>
-      </c>
-      <c r="K28" s="13">
-        <f>$B$7*(1-K$16)^(-$E28)</f>
-        <v>1801.8725220774029</v>
-      </c>
-      <c r="L28" s="13">
-        <f>$B$7*(1-L$16*$E28)^-1</f>
-        <v>1750.0004201309785</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="14">
-        <v>8</v>
-      </c>
-      <c r="E29" s="14">
-        <f>D29*(1/$B$9)</f>
-        <v>2</v>
-      </c>
-      <c r="F29" s="15">
-        <f>$B$7*(1+F$16*$E29)</f>
-        <v>1960</v>
-      </c>
-      <c r="G29" s="15">
-        <f>$B$7*(1+G$16)^$E29</f>
         <v>1959.9999999999998</v>
       </c>
-      <c r="H29" s="15">
-        <f t="shared" si="0"/>
+      <c r="H29" s="11">
+        <f t="shared" si="5"/>
         <v>1960.0000003614464</v>
       </c>
-      <c r="I29" s="15">
-        <f t="shared" si="1"/>
+      <c r="I29" s="11">
+        <f t="shared" si="6"/>
         <v>1960.0000974236607</v>
       </c>
-      <c r="J29" s="15">
-        <f t="shared" si="2"/>
+      <c r="J29" s="11">
+        <f t="shared" si="7"/>
         <v>1960.0000002487989</v>
       </c>
-      <c r="K29" s="15">
-        <f>$B$7*(1-K$16)^(-$E29)</f>
+      <c r="K29" s="11">
+        <f t="shared" si="3"/>
         <v>1960.0000002940828</v>
       </c>
-      <c r="L29" s="15">
-        <f>$B$7*(1-L$16*$E29)^-1</f>
+      <c r="L29" s="11">
+        <f t="shared" si="4"/>
         <v>1960.0006022998111</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="31">
         <f>RATE(B8, ,-B7,G29)</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="31">
         <f>RATE($B$8*$H$17, ,-$B$7,H29)*H17</f>
         <v>0.3510292238586582</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="35">
         <f>RATE($B$8*365, ,-$B$7,$I$29)*365</f>
         <v>0.3366273962400797</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="31">
         <f>-RATE(-$B$8*$J$17, ,-$B$7,$J$29)*$J$17</f>
         <v>0.32270913915867455</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="31">
         <f>-RATE(-$B$8, ,-$B$7,$K$29)</f>
         <v>0.2857142857723135</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F33" s="45">
+      <c r="F33" s="31">
         <f>(G29/B7-1)/B8</f>
         <v>0.47999999999999987</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="31">
         <f>(1-B7/G29)/B8</f>
         <v>0.24489795918367346</v>
       </c>
@@ -6334,7 +6330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -6357,18 +6353,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="59">
         <v>44276</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6379,7 +6375,7 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>1000</v>
       </c>
       <c r="C7" t="s">
@@ -6390,7 +6386,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -6401,7 +6397,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -6415,691 +6411,691 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="41" t="s">
+      <c r="H14" s="64"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="43" t="s">
+      <c r="K14" s="64"/>
+      <c r="L14" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F16" s="26">
+      <c r="F16" s="18">
         <v>0.4</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="15">
         <v>0.4</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="15">
         <v>0.4</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="15">
         <v>0.4</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="15">
         <v>0.4</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="15">
         <v>0.4</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="19">
         <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
         <v>4</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="8">
         <v>4</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="29"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="31" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="55"/>
+      <c r="G19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="N19" s="55" t="s">
+      <c r="L19" s="57"/>
+      <c r="N19" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R19" s="56" t="s">
+      <c r="R19" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="57" t="s">
+      <c r="N20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="35" t="s">
+      <c r="P20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="Q20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="36" t="s">
+      <c r="R20" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="12">
-        <f>D21*(1/$B$9)</f>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21:E29" si="0">D21*(1/$B$9)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="22">
-        <f>$B$7*(1+F$16*$E21)</f>
+      <c r="F21" s="17">
+        <f t="shared" ref="F21:F29" si="1">$B$7*(1+F$16*$E21)</f>
         <v>1000</v>
       </c>
-      <c r="G21" s="22">
-        <f>$B$7*(1+G$16)^$E21</f>
+      <c r="G21" s="17">
+        <f t="shared" ref="G21:G29" si="2">$B$7*(1+G$16)^$E21</f>
         <v>1000</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="17">
         <f>$B$7*(1+H$16/H$17)^($E21*H$17)</f>
         <v>1000</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="17">
         <f>$B$7*EXP(I$16*$E21)</f>
         <v>1000</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="17">
         <f>$B$7*(1-J$16/J$17)^-($E21*J$17)</f>
         <v>1000</v>
       </c>
-      <c r="K21" s="22">
-        <f>$B$7*(1-K$16)^(-$E21)</f>
+      <c r="K21" s="17">
+        <f t="shared" ref="K21:K29" si="3">$B$7*(1-K$16)^(-$E21)</f>
         <v>1000</v>
       </c>
-      <c r="L21" s="22">
-        <f>$B$7*(1-L$16*$E21)^-1</f>
+      <c r="L21" s="17">
+        <f t="shared" ref="L21:L29" si="4">$B$7*(1-L$16*$E21)^-1</f>
         <v>1000</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="41">
         <f>FV(G$16,$E21, ,-$B$7)</f>
         <v>1000</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="37">
         <f>FV($H$16/$H$17,$H$17*E21, ,-$B$7)</f>
         <v>1000</v>
       </c>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51">
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37">
         <f>FV(-$J$16/$J$17,-$J$17*E21, ,-$B$7)</f>
         <v>1000</v>
       </c>
-      <c r="R21" s="59">
+      <c r="R21" s="42">
         <f>FV(-K$16,-$E21, ,-$B$7)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="12">
-        <f>D22*(1/$B$9)</f>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F22" s="13">
-        <f>$B$7*(1+F$16*$E22)</f>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="G22" s="13">
-        <f>$B$7*(1+G$16)^$E22</f>
+      <c r="G22" s="9">
+        <f t="shared" si="2"/>
         <v>1087.7573059372771</v>
       </c>
-      <c r="H22" s="13">
-        <f t="shared" ref="H22:H29" si="0">$B$7*(1+H$16/H$17)^($E22*H$17)</f>
+      <c r="H22" s="9">
+        <f t="shared" ref="H22:H29" si="5">$B$7*(1+H$16/H$17)^($E22*H$17)</f>
         <v>1100</v>
       </c>
-      <c r="I22" s="13">
-        <f t="shared" ref="I22:I29" si="1">$B$7*EXP(I$16*$E22)</f>
+      <c r="I22" s="9">
+        <f t="shared" ref="I22:I29" si="6">$B$7*EXP(I$16*$E22)</f>
         <v>1105.1709180756477</v>
       </c>
-      <c r="J22" s="13">
-        <f t="shared" ref="J22:J29" si="2">$B$7*(1-J$16/J$17)^-($E22*J$17)</f>
+      <c r="J22" s="9">
+        <f t="shared" ref="J22:J29" si="7">$B$7*(1-J$16/J$17)^-($E22*J$17)</f>
         <v>1111.1111111111111</v>
       </c>
-      <c r="K22" s="13">
-        <f>$B$7*(1-K$16)^(-$E22)</f>
+      <c r="K22" s="9">
+        <f t="shared" si="3"/>
         <v>1136.2193664674994</v>
       </c>
-      <c r="L22" s="13">
-        <f>$B$7*(1-L$16*$E22)^-1</f>
+      <c r="L22" s="9">
+        <f t="shared" si="4"/>
         <v>1111.1111111111111</v>
       </c>
-      <c r="N22" s="60">
+      <c r="N22" s="43">
         <f>FV(G$16,$E22, ,-$B$7)</f>
         <v>1087.7573059372771</v>
       </c>
-      <c r="O22" s="51">
-        <f t="shared" ref="O22:O29" si="3">FV($H$16/$H$17,$H$17*E22, ,-$B$7)</f>
+      <c r="O22" s="37">
+        <f t="shared" ref="O22:O29" si="8">FV($H$16/$H$17,$H$17*E22, ,-$B$7)</f>
         <v>1100</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="51">
-        <f t="shared" ref="Q22:Q29" si="4">FV(-$J$16/$J$17,-$J$17*E22, ,-$B$7)</f>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="37">
+        <f t="shared" ref="Q22:Q29" si="9">FV(-$J$16/$J$17,-$J$17*E22, ,-$B$7)</f>
         <v>1111.1111111111111</v>
       </c>
-      <c r="R22" s="59">
-        <f t="shared" ref="R22:R29" si="5">FV(-K$16,-$E22, ,-$B$7)</f>
+      <c r="R22" s="42">
+        <f t="shared" ref="R22:R29" si="10">FV(-K$16,-$E22, ,-$B$7)</f>
         <v>1136.2193664674994</v>
       </c>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="12">
-        <f>D23*(1/$B$9)</f>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F23" s="13">
-        <f>$B$7*(1+F$16*$E23)</f>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="G23" s="13">
-        <f>$B$7*(1+G$16)^$E23</f>
+      <c r="G23" s="9">
+        <f t="shared" si="2"/>
         <v>1183.2159566199232</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="9">
+        <f t="shared" si="5"/>
+        <v>1210.0000000000002</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="6"/>
+        <v>1221.4027581601699</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="7"/>
+        <v>1234.5679012345679</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="3"/>
+        <v>1290.9944487358057</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="N23" s="43">
+        <f t="shared" ref="N23:N29" si="11">FV(G$16,$E23, ,-$B$7)</f>
+        <v>1183.2159566199232</v>
+      </c>
+      <c r="O23" s="37">
+        <f t="shared" si="8"/>
+        <v>1210.0000000000002</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="37">
+        <f t="shared" si="9"/>
+        <v>1234.5679012345679</v>
+      </c>
+      <c r="R23" s="42">
+        <f t="shared" si="10"/>
+        <v>1290.9944487358057</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
-        <v>1210.0000000000002</v>
-      </c>
-      <c r="I23" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="1"/>
-        <v>1221.4027581601699</v>
-      </c>
-      <c r="J23" s="13">
+        <v>1300</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="2"/>
-        <v>1234.5679012345679</v>
-      </c>
-      <c r="K23" s="13">
-        <f>$B$7*(1-K$16)^(-$E23)</f>
-        <v>1290.9944487358057</v>
-      </c>
-      <c r="L23" s="13">
-        <f>$B$7*(1-L$16*$E23)^-1</f>
-        <v>1250</v>
-      </c>
-      <c r="N23" s="60">
-        <f t="shared" ref="N23:N29" si="6">FV(G$16,$E23, ,-$B$7)</f>
-        <v>1183.2159566199232</v>
-      </c>
-      <c r="O23" s="51">
+        <v>1287.0518013148858</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="5"/>
+        <v>1331.0000000000005</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="6"/>
+        <v>1349.8588075760031</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="7"/>
+        <v>1371.7421124828531</v>
+      </c>
+      <c r="K24" s="9">
         <f t="shared" si="3"/>
-        <v>1210.0000000000002</v>
-      </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="51">
+        <v>1466.8528946556557</v>
+      </c>
+      <c r="L24" s="9">
         <f t="shared" si="4"/>
-        <v>1234.5679012345679</v>
-      </c>
-      <c r="R23" s="59">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="N24" s="43">
+        <f t="shared" si="11"/>
+        <v>1287.0518013148858</v>
+      </c>
+      <c r="O24" s="37">
+        <f t="shared" si="8"/>
+        <v>1331.0000000000005</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="37">
+        <f t="shared" si="9"/>
+        <v>1371.7421124828531</v>
+      </c>
+      <c r="R24" s="42">
+        <f t="shared" si="10"/>
+        <v>1466.8528946556557</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="H25" s="9">
         <f t="shared" si="5"/>
-        <v>1290.9944487358057</v>
-      </c>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D24" s="12">
-        <v>3</v>
-      </c>
-      <c r="E24" s="12">
-        <f>D24*(1/$B$9)</f>
-        <v>0.75</v>
-      </c>
-      <c r="F24" s="13">
-        <f>$B$7*(1+F$16*$E24)</f>
-        <v>1300</v>
-      </c>
-      <c r="G24" s="13">
-        <f>$B$7*(1+G$16)^$E24</f>
-        <v>1287.0518013148858</v>
-      </c>
-      <c r="H24" s="13">
+        <v>1464.1000000000004</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="6"/>
+        <v>1491.8246976412704</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="7"/>
+        <v>1524.1579027587256</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="3"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="4"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="N25" s="43">
+        <f t="shared" si="11"/>
+        <v>1400</v>
+      </c>
+      <c r="O25" s="37">
+        <f t="shared" si="8"/>
+        <v>1464.1000000000004</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="37">
+        <f t="shared" si="9"/>
+        <v>1524.1579027587256</v>
+      </c>
+      <c r="R25" s="42">
+        <f t="shared" si="10"/>
+        <v>1666.6666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D26" s="8">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
-        <v>1331.0000000000005</v>
-      </c>
-      <c r="I24" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="F26" s="9">
         <f t="shared" si="1"/>
-        <v>1349.8588075760031</v>
-      </c>
-      <c r="J24" s="13">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="2"/>
-        <v>1371.7421124828531</v>
-      </c>
-      <c r="K24" s="13">
-        <f>$B$7*(1-K$16)^(-$E24)</f>
-        <v>1466.8528946556557</v>
-      </c>
-      <c r="L24" s="13">
-        <f>$B$7*(1-L$16*$E24)^-1</f>
-        <v>1428.5714285714287</v>
-      </c>
-      <c r="N24" s="60">
+        <v>1522.8602283121879</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="5"/>
+        <v>1610.5100000000004</v>
+      </c>
+      <c r="I26" s="9">
         <f t="shared" si="6"/>
-        <v>1287.0518013148858</v>
-      </c>
-      <c r="O24" s="51">
+        <v>1648.7212707001281</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="7"/>
+        <v>1693.5087808430283</v>
+      </c>
+      <c r="K26" s="9">
         <f t="shared" si="3"/>
-        <v>1331.0000000000005</v>
-      </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="51">
+        <v>1893.698944112499</v>
+      </c>
+      <c r="L26" s="9">
         <f t="shared" si="4"/>
-        <v>1371.7421124828531</v>
-      </c>
-      <c r="R24" s="59">
+        <v>2000</v>
+      </c>
+      <c r="N26" s="43">
+        <f t="shared" si="11"/>
+        <v>1522.8602283121879</v>
+      </c>
+      <c r="O26" s="37">
+        <f t="shared" si="8"/>
+        <v>1610.5100000000004</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="37">
+        <f t="shared" si="9"/>
+        <v>1693.5087808430283</v>
+      </c>
+      <c r="R26" s="42">
+        <f t="shared" si="10"/>
+        <v>1893.698944112499</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D27" s="8">
+        <v>6</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="2"/>
+        <v>1656.5023392678925</v>
+      </c>
+      <c r="H27" s="9">
         <f t="shared" si="5"/>
-        <v>1466.8528946556557</v>
-      </c>
-    </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D25" s="12">
-        <v>4</v>
-      </c>
-      <c r="E25" s="12">
-        <f>D25*(1/$B$9)</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
-        <f>$B$7*(1+F$16*$E25)</f>
-        <v>1400</v>
-      </c>
-      <c r="G25" s="13">
-        <f>$B$7*(1+G$16)^$E25</f>
-        <v>1400</v>
-      </c>
-      <c r="H25" s="13">
+        <v>1771.5610000000008</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="6"/>
+        <v>1822.118800390509</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="7"/>
+        <v>1881.6764231589202</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="3"/>
+        <v>2151.657414559676</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="4"/>
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="N27" s="43">
+        <f t="shared" si="11"/>
+        <v>1656.5023392678925</v>
+      </c>
+      <c r="O27" s="37">
+        <f t="shared" si="8"/>
+        <v>1771.5610000000008</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="37">
+        <f t="shared" si="9"/>
+        <v>1881.6764231589202</v>
+      </c>
+      <c r="R27" s="42">
+        <f t="shared" si="10"/>
+        <v>2151.657414559676</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="8">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
-        <v>1464.1000000000004</v>
-      </c>
-      <c r="I25" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="F28" s="9">
         <f t="shared" si="1"/>
-        <v>1491.8246976412704</v>
-      </c>
-      <c r="J25" s="13">
+        <v>1700.0000000000002</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="2"/>
-        <v>1524.1579027587256</v>
-      </c>
-      <c r="K25" s="13">
-        <f>$B$7*(1-K$16)^(-$E25)</f>
-        <v>1666.6666666666667</v>
-      </c>
-      <c r="L25" s="13">
-        <f>$B$7*(1-L$16*$E25)^-1</f>
-        <v>1666.6666666666667</v>
-      </c>
-      <c r="N25" s="60">
+        <v>1801.8725218408399</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="5"/>
+        <v>1948.7171000000012</v>
+      </c>
+      <c r="I28" s="9">
         <f t="shared" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="O25" s="51">
+        <v>2013.7527074704767</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="7"/>
+        <v>2090.7515812876891</v>
+      </c>
+      <c r="K28" s="9">
         <f t="shared" si="3"/>
-        <v>1464.1000000000004</v>
-      </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="51">
+        <v>2444.7548244260929</v>
+      </c>
+      <c r="L28" s="9">
         <f t="shared" si="4"/>
-        <v>1524.1579027587256</v>
-      </c>
-      <c r="R25" s="59">
+        <v>3333.3333333333339</v>
+      </c>
+      <c r="N28" s="43">
+        <f t="shared" si="11"/>
+        <v>1801.8725218408399</v>
+      </c>
+      <c r="O28" s="37">
+        <f t="shared" si="8"/>
+        <v>1948.7171000000012</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="37">
+        <f t="shared" si="9"/>
+        <v>2090.7515812876891</v>
+      </c>
+      <c r="R28" s="42">
+        <f t="shared" si="10"/>
+        <v>2444.7548244260929</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="10">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="2"/>
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="H29" s="11">
         <f t="shared" si="5"/>
-        <v>1666.6666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D26" s="12">
-        <v>5</v>
-      </c>
-      <c r="E26" s="12">
-        <f>D26*(1/$B$9)</f>
-        <v>1.25</v>
-      </c>
-      <c r="F26" s="13">
-        <f>$B$7*(1+F$16*$E26)</f>
-        <v>1500</v>
-      </c>
-      <c r="G26" s="13">
-        <f>$B$7*(1+G$16)^$E26</f>
-        <v>1522.8602283121879</v>
-      </c>
-      <c r="H26" s="13">
-        <f t="shared" si="0"/>
-        <v>1610.5100000000004</v>
-      </c>
-      <c r="I26" s="13">
-        <f t="shared" si="1"/>
-        <v>1648.7212707001281</v>
-      </c>
-      <c r="J26" s="13">
-        <f t="shared" si="2"/>
-        <v>1693.5087808430283</v>
-      </c>
-      <c r="K26" s="13">
-        <f>$B$7*(1-K$16)^(-$E26)</f>
-        <v>1893.698944112499</v>
-      </c>
-      <c r="L26" s="13">
-        <f>$B$7*(1-L$16*$E26)^-1</f>
-        <v>2000</v>
-      </c>
-      <c r="N26" s="60">
+        <v>2143.5888100000011</v>
+      </c>
+      <c r="I29" s="11">
         <f t="shared" si="6"/>
-        <v>1522.8602283121879</v>
-      </c>
-      <c r="O26" s="51">
+        <v>2225.5409284924681</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="7"/>
+        <v>2323.0573125418769</v>
+      </c>
+      <c r="K29" s="11">
         <f t="shared" si="3"/>
-        <v>1610.5100000000004</v>
-      </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="51">
+        <v>2777.7777777777778</v>
+      </c>
+      <c r="L29" s="11">
         <f t="shared" si="4"/>
-        <v>1693.5087808430283</v>
-      </c>
-      <c r="R26" s="59">
-        <f t="shared" si="5"/>
-        <v>1893.698944112499</v>
-      </c>
-    </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D27" s="12">
-        <v>6</v>
-      </c>
-      <c r="E27" s="12">
-        <f>D27*(1/$B$9)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F27" s="13">
-        <f>$B$7*(1+F$16*$E27)</f>
-        <v>1600</v>
-      </c>
-      <c r="G27" s="13">
-        <f>$B$7*(1+G$16)^$E27</f>
-        <v>1656.5023392678925</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="0"/>
-        <v>1771.5610000000008</v>
-      </c>
-      <c r="I27" s="13">
-        <f t="shared" si="1"/>
-        <v>1822.118800390509</v>
-      </c>
-      <c r="J27" s="13">
-        <f t="shared" si="2"/>
-        <v>1881.6764231589202</v>
-      </c>
-      <c r="K27" s="13">
-        <f>$B$7*(1-K$16)^(-$E27)</f>
-        <v>2151.657414559676</v>
-      </c>
-      <c r="L27" s="13">
-        <f>$B$7*(1-L$16*$E27)^-1</f>
-        <v>2500.0000000000005</v>
-      </c>
-      <c r="N27" s="60">
-        <f t="shared" si="6"/>
-        <v>1656.5023392678925</v>
-      </c>
-      <c r="O27" s="51">
-        <f t="shared" si="3"/>
-        <v>1771.5610000000008</v>
-      </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="51">
-        <f t="shared" si="4"/>
-        <v>1881.6764231589202</v>
-      </c>
-      <c r="R27" s="59">
-        <f t="shared" si="5"/>
-        <v>2151.657414559676</v>
-      </c>
-    </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D28" s="12">
-        <v>7</v>
-      </c>
-      <c r="E28" s="12">
-        <f>D28*(1/$B$9)</f>
-        <v>1.75</v>
-      </c>
-      <c r="F28" s="13">
-        <f>$B$7*(1+F$16*$E28)</f>
-        <v>1700.0000000000002</v>
-      </c>
-      <c r="G28" s="13">
-        <f>$B$7*(1+G$16)^$E28</f>
-        <v>1801.8725218408399</v>
-      </c>
-      <c r="H28" s="13">
-        <f t="shared" si="0"/>
-        <v>1948.7171000000012</v>
-      </c>
-      <c r="I28" s="13">
-        <f t="shared" si="1"/>
-        <v>2013.7527074704767</v>
-      </c>
-      <c r="J28" s="13">
-        <f t="shared" si="2"/>
-        <v>2090.7515812876891</v>
-      </c>
-      <c r="K28" s="13">
-        <f>$B$7*(1-K$16)^(-$E28)</f>
-        <v>2444.7548244260929</v>
-      </c>
-      <c r="L28" s="13">
-        <f>$B$7*(1-L$16*$E28)^-1</f>
-        <v>3333.3333333333339</v>
-      </c>
-      <c r="N28" s="60">
-        <f t="shared" si="6"/>
-        <v>1801.8725218408399</v>
-      </c>
-      <c r="O28" s="51">
-        <f t="shared" si="3"/>
-        <v>1948.7171000000012</v>
-      </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="51">
-        <f t="shared" si="4"/>
-        <v>2090.7515812876891</v>
-      </c>
-      <c r="R28" s="59">
-        <f t="shared" si="5"/>
-        <v>2444.7548244260929</v>
-      </c>
-    </row>
-    <row r="29" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="14">
-        <v>8</v>
-      </c>
-      <c r="E29" s="14">
-        <f>D29*(1/$B$9)</f>
-        <v>2</v>
-      </c>
-      <c r="F29" s="15">
-        <f>$B$7*(1+F$16*$E29)</f>
-        <v>1800</v>
-      </c>
-      <c r="G29" s="15">
-        <f>$B$7*(1+G$16)^$E29</f>
+        <v>5000.0000000000009</v>
+      </c>
+      <c r="N29" s="44">
+        <f t="shared" si="11"/>
         <v>1959.9999999999998</v>
       </c>
-      <c r="H29" s="15">
-        <f t="shared" si="0"/>
+      <c r="O29" s="53">
+        <f t="shared" si="8"/>
         <v>2143.5888100000011</v>
       </c>
-      <c r="I29" s="15">
-        <f t="shared" si="1"/>
-        <v>2225.5409284924681</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="2"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="53">
+        <f t="shared" si="9"/>
         <v>2323.0573125418769</v>
       </c>
-      <c r="K29" s="15">
-        <f>$B$7*(1-K$16)^(-$E29)</f>
-        <v>2777.7777777777778</v>
-      </c>
-      <c r="L29" s="15">
-        <f>$B$7*(1-L$16*$E29)^-1</f>
-        <v>5000.0000000000009</v>
-      </c>
-      <c r="N29" s="61">
-        <f t="shared" si="6"/>
-        <v>1959.9999999999998</v>
-      </c>
-      <c r="O29" s="70">
-        <f t="shared" si="3"/>
-        <v>2143.5888100000011</v>
-      </c>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="70">
-        <f t="shared" si="4"/>
-        <v>2323.0573125418769</v>
-      </c>
-      <c r="R29" s="71">
-        <f t="shared" si="5"/>
+      <c r="R29" s="54">
+        <f t="shared" si="10"/>
         <v>2777.7777777777778</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F15:L15"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7130,7 +7126,7 @@
       <c r="K8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="8">
         <f>D10*(1+H10)^J18</f>
         <v>1959.9999999999998</v>
       </c>
@@ -7145,22 +7141,22 @@
       <c r="K9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="36">
         <f>FV(H10,J18, ,-D10)</f>
         <v>1959.9999999999998</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="63">
+      <c r="D10" s="46">
         <v>1000</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="47">
         <v>0.4</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="46">
         <v>1960</v>
       </c>
     </row>
@@ -7168,14 +7164,14 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="36">
         <f>PV(H10,J18, ,-M10)</f>
         <v>1000.0000000000001</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="14">
         <f>RATE(J18, ,-D10,M10)</f>
         <v>0.39999999999999997</v>
       </c>
@@ -7186,7 +7182,7 @@
       </c>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="63">
+      <c r="J18" s="46">
         <v>2</v>
       </c>
       <c r="K18" t="s">
@@ -7197,7 +7193,7 @@
       <c r="I19" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="8">
         <f>NPER(H10, ,-D10,M10)</f>
         <v>2</v>
       </c>
@@ -7239,7 +7235,7 @@
       <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="46">
         <v>500</v>
       </c>
       <c r="C8" t="s">
@@ -7250,10 +7246,10 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="47">
         <v>0.25</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="48" t="s">
         <v>46</v>
       </c>
       <c r="G9" t="s">
@@ -7269,7 +7265,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="66">
+      <c r="B11" s="49">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
@@ -7307,7 +7303,7 @@
       <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="50">
         <f>(C17-3)*360</f>
         <v>38.262139021940342</v>
       </c>
@@ -7324,7 +7320,7 @@
       <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="51">
         <f ca="1">TODAY()+3*360+38</f>
         <v>45759</v>
       </c>
@@ -7333,11 +7329,11 @@
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="69">
+      <c r="D34" s="71"/>
+      <c r="E34" s="52">
         <v>1.4844705301948913</v>
       </c>
       <c r="F34" t="s">
@@ -7346,7 +7342,7 @@
       <c r="G34" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="67">
+      <c r="H34" s="50">
         <f>365/E34</f>
         <v>245.87891276769255</v>
       </c>
@@ -7363,7 +7359,7 @@
       <c r="A36" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="4">
         <f>B8*(1+B9/E34)^(E34*3)</f>
         <v>999.99976247730081</v>
       </c>
